--- a/doc/01 概要设计/40 自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/40 自定义表单概要设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSI\git\PSI\doc\01 概要设计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="20415" windowHeight="9345"/>
   </bookViews>
@@ -122,133 +127,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>一个系统数据字典由：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>memo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个字段构成</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>一个码表的必有字段是：</t>
     </r>
     <r>
@@ -1563,6 +1441,152 @@
         <family val="3"/>
       </rPr>
       <t>show_order</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个系统数据字典由：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>code_int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>memo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个字段构成</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1570,8 +1594,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,14 +1742,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1737,11 +1761,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1783,7 +1815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1815,9 +1847,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1849,6 +1882,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2024,22 +2058,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="24.95" customHeight="1">
+    <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="24.95" customHeight="1">
+    <row r="3" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2047,22 +2081,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="24.95" customHeight="1">
+    <row r="4" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="24.95" customHeight="1">
+    <row r="5" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="24.95" customHeight="1">
+    <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="24.95" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -2070,37 +2104,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="24.95" customHeight="1">
+    <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="24.95" customHeight="1">
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="24.95" customHeight="1">
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="24.95" customHeight="1">
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="24.95" customHeight="1">
+    <row r="13" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="24.95" customHeight="1">
+    <row r="14" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="24.95" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -2108,40 +2142,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="24.95" customHeight="1">
+    <row r="17" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="24.95" customHeight="1">
+    <row r="18" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="24.95" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="24.95" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="24.95" customHeight="1">
+    <row r="23" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="24.95" customHeight="1">
-      <c r="C24" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2155,129 +2189,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="24.95" customHeight="1">
+    <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="24.95" customHeight="1">
+    <row r="5" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="24.95" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="24.95" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="24.95" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="24.95" customHeight="1">
+    <row r="11" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="24.95" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="24.95" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="24.95" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="24.95" customHeight="1">
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="24.95" customHeight="1">
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="24.95" customHeight="1">
-      <c r="C18" s="1" t="s">
+    <row r="19" spans="3:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="24.95" customHeight="1">
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="3:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="24.95" customHeight="1">
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="3:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="24.95" customHeight="1">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="3:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="24.95" customHeight="1">
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="3:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" ht="24.95" customHeight="1">
-      <c r="C23" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2287,12 +2321,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="5"/>
@@ -2301,204 +2335,204 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1">
+    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1">
+    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="52.5" customHeight="1">
+    </row>
+    <row r="12" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="16" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6">
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="42" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="24.95" customHeight="1">
+    </row>
+    <row r="18" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="24.95" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="34.5" customHeight="1">
+    </row>
+    <row r="20" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6">
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="57.75" customHeight="1">
+    </row>
+    <row r="21" spans="2:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6">
         <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01 概要设计/40 自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/40 自定义表单概要设计.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSI\git\PSI\doc\01 概要设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D1DB8-3D69-4806-975C-ECAB4020DC0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="20415" windowHeight="9345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自定义表单" sheetId="1" r:id="rId1"/>
@@ -1567,6 +1568,25 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>show_order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>这</t>
     </r>
     <r>
@@ -1576,7 +1596,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>6</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -1594,8 +1614,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,6 +1674,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1705,7 +1732,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1753,6 +1780,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1848,6 +1878,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1883,6 +1930,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2058,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2092,7 +2156,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2181,7 +2245,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C23" location="表单视图!A1" display="表单视图"/>
+    <hyperlink ref="C23" location="表单视图!A1" display="表单视图" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2189,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2321,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
